--- a/Penugasan Prioritisasi/Prioritas_RKC_Kel 4.xlsx
+++ b/Penugasan Prioritisasi/Prioritas_RKC_Kel 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807C8A0A-5C19-407A-939B-DFC9D92D0BBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B86664F-6E18-4A8B-8FC6-1A8A63CC76A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="113">
   <si>
     <t>Tugas Analisa Sistem</t>
   </si>
@@ -126,7 +126,30 @@
     <t>F 5.1 Sistem memungkinkan pengguna untuk melihat ringkasan pemesanan(item yang dibeli beserta jumlahnya, sub total, biaya kirim, biaya asuransi, diskon pengiriman, diskon belanja, potongan kupon, total pembayaran)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Link Kuisioner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
     <t>F 5.2 Sistem dapat memungkinkan pengguna untuk memasukkan kode promo</t>
+  </si>
+  <si>
+    <t>https://bit.ly/HasilKuisionerKel4</t>
   </si>
   <si>
     <t>F 5.3 Sistem memungkinkan pengguna untuk menambahkan tujuan pengiriman(Nama Alamat, Nama Penerima, No Handpohone, Provinsi, Kota/Kabupaten, Kecamatan, Kode Pos, Alamat lengkap, koordinat lokasi)</t>
@@ -235,6 +258,18 @@
     <t>KOLOM &gt; BARIS = PECAHAN</t>
   </si>
   <si>
+    <t>Sangat Rendah</t>
+  </si>
+  <si>
+    <t>Rendah</t>
+  </si>
+  <si>
+    <t>Tinggi</t>
+  </si>
+  <si>
+    <t>Sangat Tinggi</t>
+  </si>
+  <si>
     <t>R1</t>
   </si>
   <si>
@@ -334,6 +369,9 @@
     <t>Kebutuhan</t>
   </si>
   <si>
+    <t>Requirements</t>
+  </si>
+  <si>
     <t>High if ratio value/cost &gt;= 2.0</t>
   </si>
   <si>
@@ -343,10 +381,22 @@
     <t>Otherwise, Low</t>
   </si>
   <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>High Margin</t>
   </si>
   <si>
     <t>Low Margin</t>
+  </si>
+  <si>
+    <t>5. Pengguna dapat melakukan transaksi pembelian item yang tersedia di toko</t>
   </si>
 </sst>
 </file>
@@ -358,7 +408,7 @@
     <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="d/m"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,45 +418,79 @@
       <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,8 +515,26 @@
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -532,37 +634,24 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -590,32 +679,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -626,18 +717,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -653,6 +748,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -675,14 +773,20 @@
     <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -717,7 +821,6 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -726,12 +829,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -753,6 +850,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,6 +875,977 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1">
+                <a:solidFill>
+                  <a:srgbClr val="57BB8A"/>
+                </a:solidFill>
+                <a:latin typeface="Arial black"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Mapping ROI</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cost &amp; Value'!$F$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Requirements</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5F8AD519-AB2B-4578-904E-AF40F366608A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ID"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-B033-43F1-9EEE-C9806A0FA2E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.666666666666707E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E6357751-9079-4234-A45D-B14DE12718A0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ID"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-B033-43F1-9EEE-C9806A0FA2E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E239EDB2-FBC4-42D7-A9E9-A48EA37DAFB0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ID"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-B033-43F1-9EEE-C9806A0FA2E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5E61AAD4-6F0C-4E98-ABDE-C0D890F63310}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ID"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-B033-43F1-9EEE-C9806A0FA2E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BC014D9D-D814-4129-A15A-111BE64E2215}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ID"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-B033-43F1-9EEE-C9806A0FA2E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FE592427-5923-4D1E-9EA3-A0417593406D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ID"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-B033-43F1-9EEE-C9806A0FA2E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{46E0A22A-D191-461C-8238-F741CA616C57}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ID"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-B033-43F1-9EEE-C9806A0FA2E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A0CEC351-4C32-48DF-9A23-C06FED69D640}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ID"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-B033-43F1-9EEE-C9806A0FA2E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1111111111111131E-2"/>
+                  <c:y val="2.8751123090745734E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E9B6FE3F-F344-41C1-88E1-9000E38B156D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ID"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-B033-43F1-9EEE-C9806A0FA2E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cost &amp; Value'!$E$47:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.5678541568878088E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8892348076042674E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6279250270877162E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14358015876425115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14358015876425115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5761552417702683E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30061651414349461</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20860325648612713</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7008219508375338E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cost &amp; Value'!$F$47:$F$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.13986864981882521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6334116569911513E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2383590643392848</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7508244448815692E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2383590643392848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13986864981882521</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3725819836221664E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9642274258919581E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6334116569911513E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Cost &amp; Value'!$D$47:$D$55</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>R1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>R2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>R3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>R4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>R5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>R6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>R7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>R8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>R9</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1BD2-4199-8F1B-701237007D5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cost &amp; Value'!$G$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High Margin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:name>High Margin</c:name>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cost &amp; Value'!$E$47:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.5678541568878088E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8892348076042674E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6279250270877162E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14358015876425115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14358015876425115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5761552417702683E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30061651414349461</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20860325648612713</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7008219508375338E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cost &amp; Value'!$G$47:$G$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.1357083137756175E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7784696152085349E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2558500541754323E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2871603175285023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2871603175285023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17152310483540537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60123302828698921</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41720651297225425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4016439016750677E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1BD2-4199-8F1B-701237007D5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Low Margin</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002C-B033-43F1-9EEE-C9806A0FA2E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:trendline>
+            <c:name>Low Margin</c:name>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cost &amp; Value'!$E$47:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.5678541568878088E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8892348076042674E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6279250270877162E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14358015876425115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14358015876425115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5761552417702683E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30061651414349461</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20860325648612713</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7008219508375338E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cost &amp; Value'!$H$47:$H$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.8392707844390438E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4446174038021337E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3139625135438581E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1790079382125574E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1790079382125574E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2880776208851341E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1503082570717473</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10430162824306356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3504109754187669E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002B-B033-43F1-9EEE-C9806A0FA2E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="522949400"/>
+        <c:axId val="462023087"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="522949400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="sans-serif"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Cost</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="sans-serif"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462023087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="462023087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="sans-serif"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522949400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>826281</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>51343</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2007621329" name="Chart 1" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D1DEA977}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -973,8 +2051,8 @@
   </sheetPr>
   <dimension ref="B1:AC1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -990,2112 +2068,2772 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
+      <c r="R1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
     </row>
     <row r="2" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-    </row>
-    <row r="3" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="21"/>
+    </row>
+    <row r="3" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-    </row>
-    <row r="4" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="71" t="s">
+      <c r="R3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="21"/>
+    </row>
+    <row r="4" spans="2:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="24">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24">
+        <v>2</v>
+      </c>
+      <c r="G4" s="24">
+        <v>3</v>
+      </c>
+      <c r="H4" s="24">
+        <v>4</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="M4" s="9"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="24">
+        <v>1</v>
+      </c>
+      <c r="T4" s="24">
+        <v>2</v>
+      </c>
+      <c r="U4" s="24">
+        <v>3</v>
+      </c>
+      <c r="V4" s="24">
+        <v>4</v>
+      </c>
+      <c r="W4" s="21"/>
+    </row>
+    <row r="5" spans="2:29" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="22">
-        <v>1</v>
-      </c>
-      <c r="F4" s="22">
-        <v>2</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="D5" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="30"/>
+      <c r="M5" s="9"/>
+      <c r="R5" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="U5" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="V5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y5" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z5" s="32"/>
+    </row>
+    <row r="6" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="24">
         <v>3</v>
       </c>
-      <c r="H4" s="22">
-        <v>4</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="M4" s="9"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-    </row>
-    <row r="5" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="70"/>
-      <c r="D5" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="9"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-    </row>
-    <row r="6" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="65"/>
-      <c r="D6" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="22">
-        <v>3</v>
-      </c>
-      <c r="F6" s="22">
+      <c r="F6" s="24">
         <v>0</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="24">
         <v>0</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="24">
         <v>0</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="24">
         <f t="shared" ref="I6:I14" si="0">(E6*$E$4)+(F6*$F$4)+(G6*$G$4)+(H6*$H$4)</f>
         <v>3</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="30">
+      <c r="J6" s="21"/>
+      <c r="K6" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="34">
         <v>3</v>
       </c>
       <c r="M6" s="9"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
+      <c r="R6" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="24">
+        <v>0</v>
+      </c>
+      <c r="T6" s="24">
+        <v>0</v>
+      </c>
+      <c r="U6" s="24">
+        <v>2</v>
+      </c>
+      <c r="V6" s="24">
+        <v>7</v>
+      </c>
+      <c r="W6" s="24">
+        <f t="shared" ref="W6:W14" si="1">(S6*$S$4)+(T6*$T$4)+(U6*$U$4)+(V6*$V$4)</f>
+        <v>34</v>
+      </c>
+      <c r="Y6" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" s="35">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
     </row>
     <row r="7" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="22">
+      <c r="B7" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="24">
         <v>0</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="24">
         <v>2</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="24">
         <v>1</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="24">
         <v>0</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="30">
+      <c r="J7" s="21"/>
+      <c r="K7" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="34">
         <v>3</v>
       </c>
       <c r="M7" s="9"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="51"/>
+      <c r="R7" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="S7" s="24">
+        <v>0</v>
+      </c>
+      <c r="T7" s="24">
+        <v>1</v>
+      </c>
+      <c r="U7" s="24">
+        <v>3</v>
+      </c>
+      <c r="V7" s="24">
+        <v>5</v>
+      </c>
+      <c r="W7" s="24">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="Y7" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z7" s="36">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
     </row>
     <row r="8" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="70"/>
-      <c r="D8" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="22">
+      <c r="B8" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="24">
         <v>1</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="24">
         <v>2</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="24">
         <v>0</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="24">
         <v>0</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="30">
+      <c r="J8" s="21"/>
+      <c r="K8" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="34">
         <v>5</v>
       </c>
       <c r="M8" s="9"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
+      <c r="R8" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="S8" s="24">
+        <v>0</v>
+      </c>
+      <c r="T8" s="24">
+        <v>0</v>
+      </c>
+      <c r="U8" s="24">
+        <v>1</v>
+      </c>
+      <c r="V8" s="24">
+        <v>8</v>
+      </c>
+      <c r="W8" s="24">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="Y8" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z8" s="36">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
     </row>
     <row r="9" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="70"/>
-      <c r="D9" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="22">
+      <c r="B9" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="24">
         <v>0</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="24">
         <v>0</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="24">
         <v>2</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="24">
         <v>1</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="30">
+      <c r="J9" s="21"/>
+      <c r="K9" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="34">
         <v>5</v>
       </c>
       <c r="M9" s="9"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="51"/>
+      <c r="R9" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="S9" s="24">
+        <v>0</v>
+      </c>
+      <c r="T9" s="24">
+        <v>0</v>
+      </c>
+      <c r="U9" s="24">
+        <v>3</v>
+      </c>
+      <c r="V9" s="24">
+        <v>6</v>
+      </c>
+      <c r="W9" s="24">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="Y9" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z9" s="36">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
     </row>
     <row r="10" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="70"/>
-      <c r="D10" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="22">
+      <c r="B10" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="24">
         <v>0</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="24">
         <v>0</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="24">
         <v>2</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="24">
         <v>1</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="30">
+      <c r="J10" s="21"/>
+      <c r="K10" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="34">
         <v>7</v>
       </c>
       <c r="M10" s="9"/>
-      <c r="P10" s="17"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="51"/>
+      <c r="P10" s="20"/>
+      <c r="R10" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="S10" s="24">
+        <v>0</v>
+      </c>
+      <c r="T10" s="24">
+        <v>0</v>
+      </c>
+      <c r="U10" s="24">
+        <v>1</v>
+      </c>
+      <c r="V10" s="24">
+        <v>8</v>
+      </c>
+      <c r="W10" s="24">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="Y10" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z10" s="35">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
     </row>
     <row r="11" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="65"/>
-      <c r="D11" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="22">
+      <c r="B11" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="24">
         <v>0</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="24">
         <v>1</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="24">
         <v>1</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="24">
         <v>1</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="30">
+      <c r="J11" s="21"/>
+      <c r="K11" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="34">
         <v>7</v>
       </c>
       <c r="M11" s="9"/>
-      <c r="P11" s="31"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="51"/>
+      <c r="P11" s="37"/>
+      <c r="R11" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="S11" s="24">
+        <v>0</v>
+      </c>
+      <c r="T11" s="24">
+        <v>0</v>
+      </c>
+      <c r="U11" s="24">
+        <v>2</v>
+      </c>
+      <c r="V11" s="24">
+        <v>7</v>
+      </c>
+      <c r="W11" s="62">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="Y11" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z11" s="36">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
     </row>
     <row r="12" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="B12" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="24">
         <v>0</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="24">
         <v>0</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="24">
         <v>0</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="24">
         <v>3</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="30">
+      <c r="J12" s="21"/>
+      <c r="K12" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="34">
         <v>8</v>
       </c>
       <c r="M12" s="9"/>
-      <c r="P12" s="32"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
+      <c r="P12" s="38"/>
+      <c r="R12" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="S12" s="24">
+        <v>0</v>
+      </c>
+      <c r="T12" s="24">
+        <v>0</v>
+      </c>
+      <c r="U12" s="24">
+        <v>4</v>
+      </c>
+      <c r="V12" s="24">
+        <v>5</v>
+      </c>
+      <c r="W12" s="24">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="70"/>
-      <c r="D13" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="22">
+      <c r="B13" s="61"/>
+      <c r="D13" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="24">
         <v>0</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="24">
         <v>0</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="24">
         <v>1</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="24">
         <v>2</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="J13" s="9"/>
-      <c r="K13" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="30">
+      <c r="K13" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="34">
         <v>9</v>
       </c>
       <c r="M13" s="9"/>
-      <c r="P13" s="32"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
+      <c r="P13" s="38"/>
+      <c r="R13" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="S13" s="24">
+        <v>0</v>
+      </c>
+      <c r="T13" s="24">
+        <v>0</v>
+      </c>
+      <c r="U13" s="24">
+        <v>7</v>
+      </c>
+      <c r="V13" s="24">
+        <v>2</v>
+      </c>
+      <c r="W13" s="24">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="65"/>
-      <c r="D14" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="22">
+      <c r="B14" s="61"/>
+      <c r="D14" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="24">
         <v>1</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="24">
         <v>2</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="24">
         <v>0</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="24">
         <v>0</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J14" s="9"/>
-      <c r="K14" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="30">
+      <c r="K14" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="34">
         <v>9</v>
       </c>
       <c r="M14" s="9"/>
-      <c r="P14" s="32"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
+      <c r="P14" s="38"/>
+      <c r="R14" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="S14" s="24">
+        <v>0</v>
+      </c>
+      <c r="T14" s="24">
+        <v>0</v>
+      </c>
+      <c r="U14" s="24">
+        <v>5</v>
+      </c>
+      <c r="V14" s="24">
+        <v>4</v>
+      </c>
+      <c r="W14" s="24">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="72" t="s">
-        <v>27</v>
-      </c>
+      <c r="B15" s="61"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="33"/>
+      <c r="L15" s="39"/>
       <c r="M15" s="9"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
     </row>
     <row r="16" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="70"/>
+      <c r="B16" s="61"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="L16" s="34"/>
+      <c r="L16" s="40"/>
       <c r="M16" s="9"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
     </row>
     <row r="17" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="70"/>
+      <c r="B17" s="61"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="51"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
     </row>
     <row r="18" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="70"/>
+      <c r="B18" s="61"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="51"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
     </row>
     <row r="19" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="65"/>
-      <c r="D19" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="25" t="s">
+      <c r="B19" s="61"/>
+      <c r="D19" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="F19" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="M19" s="25" t="s">
+      <c r="G19" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="51"/>
-      <c r="AC19" s="51"/>
+      <c r="H19" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="S19" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="T19" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="U19" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="V19" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="W19" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="X19" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y19" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z19" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA19" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
     </row>
     <row r="20" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B20" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="35">
+      <c r="B20" s="61"/>
+      <c r="D20" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="41">
         <v>1</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="42">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="42">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="42">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="42">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="42">
         <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="42">
         <f>1/9</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="42">
         <f>1/9</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="M20" s="36">
+      <c r="M20" s="42">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="N20" s="9"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="51"/>
-    </row>
-    <row r="21" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B21" s="70"/>
-      <c r="D21" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="36">
+      <c r="P20" s="38"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="S20" s="41">
+        <v>1</v>
+      </c>
+      <c r="T20" s="42">
         <v>5</v>
       </c>
-      <c r="F21" s="35">
-        <v>1</v>
-      </c>
-      <c r="G21" s="36">
-        <v>3</v>
-      </c>
-      <c r="H21" s="36">
-        <f t="shared" ref="H21:I21" si="1">1/5</f>
-        <v>0.2</v>
-      </c>
-      <c r="I21" s="36">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="J21" s="37">
+      <c r="U20" s="42">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K21" s="37">
+      <c r="V20" s="42">
+        <v>3</v>
+      </c>
+      <c r="W20" s="42">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X20" s="42">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="42">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="42">
+        <v>7</v>
+      </c>
+      <c r="AA20" s="42">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+    </row>
+    <row r="21" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="61"/>
+      <c r="D21" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="42">
+        <v>5</v>
+      </c>
+      <c r="F21" s="41">
+        <v>1</v>
+      </c>
+      <c r="G21" s="42">
+        <v>3</v>
+      </c>
+      <c r="H21" s="42">
+        <f t="shared" ref="H21:I21" si="2">1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="42">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="J21" s="43">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K21" s="43">
         <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="44">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="M21" s="39">
+      <c r="M21" s="45">
         <v>3</v>
       </c>
       <c r="N21" s="9"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="51"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="51"/>
-    </row>
-    <row r="22" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B22" s="70"/>
-      <c r="D22" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="36">
-        <v>3</v>
-      </c>
-      <c r="F22" s="36">
+      <c r="P21" s="38"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="S21" s="42">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="T21" s="41">
+        <v>1</v>
+      </c>
+      <c r="U21" s="42">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="V21" s="42">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G22" s="35">
+      <c r="W21" s="42">
+        <f t="shared" ref="W21:X21" si="3">1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="X21" s="43">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y21" s="43">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z21" s="46">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="46">
         <v>1</v>
       </c>
-      <c r="H22" s="36">
-        <f t="shared" ref="H22:I22" si="2">1/7</f>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+    </row>
+    <row r="22" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B22" s="61"/>
+      <c r="D22" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="42">
+        <v>3</v>
+      </c>
+      <c r="F22" s="42">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G22" s="41">
+        <v>1</v>
+      </c>
+      <c r="H22" s="42">
+        <f t="shared" ref="H22:I22" si="4">1/7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I22" s="36">
-        <f t="shared" si="2"/>
+      <c r="I22" s="42">
+        <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="43">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="43">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="44">
         <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="M22" s="39">
+      <c r="M22" s="45">
         <v>1</v>
       </c>
       <c r="N22" s="9"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="51"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="S22" s="42">
+        <v>3</v>
+      </c>
+      <c r="T22" s="42">
+        <v>5</v>
+      </c>
+      <c r="U22" s="41">
+        <v>1</v>
+      </c>
+      <c r="V22" s="42">
+        <v>3</v>
+      </c>
+      <c r="W22" s="42">
+        <v>1</v>
+      </c>
+      <c r="X22" s="42">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="42">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="46">
+        <v>7</v>
+      </c>
+      <c r="AA22" s="46">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
     </row>
     <row r="23" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B23" s="65"/>
-      <c r="D23" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="36">
+      <c r="B23" s="61"/>
+      <c r="D23" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="42">
         <v>8</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="42">
         <v>5</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="42">
         <v>7</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="41">
         <v>1</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="42">
         <v>1</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="42">
         <v>3</v>
       </c>
-      <c r="K23" s="37">
-        <f t="shared" ref="K23:L23" si="3">1/3</f>
+      <c r="K23" s="43">
+        <f t="shared" ref="K23:L23" si="5">1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L23" s="38">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M23" s="39">
-        <v>7</v>
-      </c>
-      <c r="N23" s="9"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="51"/>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="51"/>
-      <c r="AC23" s="51"/>
-    </row>
-    <row r="24" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B24" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="36">
-        <v>8</v>
-      </c>
-      <c r="F24" s="36">
-        <v>5</v>
-      </c>
-      <c r="G24" s="36">
-        <v>7</v>
-      </c>
-      <c r="H24" s="36">
-        <v>1</v>
-      </c>
-      <c r="I24" s="35">
-        <v>1</v>
-      </c>
-      <c r="J24" s="36">
-        <v>3</v>
-      </c>
-      <c r="K24" s="37">
-        <f t="shared" ref="K24:L24" si="4">1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L24" s="38">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M24" s="39">
-        <v>7</v>
-      </c>
-      <c r="N24" s="9"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="51"/>
-    </row>
-    <row r="25" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B25" s="70"/>
-      <c r="D25" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="36">
-        <v>7</v>
-      </c>
-      <c r="F25" s="36">
-        <v>3</v>
-      </c>
-      <c r="G25" s="36">
-        <v>5</v>
-      </c>
-      <c r="H25" s="36">
-        <f t="shared" ref="H25:I25" si="5">1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I25" s="37">
+      <c r="L23" s="44">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J25" s="35">
+      <c r="M23" s="45">
+        <v>7</v>
+      </c>
+      <c r="N23" s="9"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="S23" s="42">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T23" s="42">
+        <v>3</v>
+      </c>
+      <c r="U23" s="42">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V23" s="41">
         <v>1</v>
       </c>
-      <c r="K25" s="37">
+      <c r="W23" s="42">
+        <f t="shared" ref="W23:X23" si="6">1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X23" s="42">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y23" s="42">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="46">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="46">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+    </row>
+    <row r="24" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B24" s="61"/>
+      <c r="D24" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="42">
+        <v>8</v>
+      </c>
+      <c r="F24" s="42">
+        <v>5</v>
+      </c>
+      <c r="G24" s="42">
+        <v>7</v>
+      </c>
+      <c r="H24" s="42">
+        <v>1</v>
+      </c>
+      <c r="I24" s="41">
+        <v>1</v>
+      </c>
+      <c r="J24" s="42">
+        <v>3</v>
+      </c>
+      <c r="K24" s="43">
+        <f t="shared" ref="K24:L24" si="7">1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L24" s="44">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M24" s="45">
+        <v>7</v>
+      </c>
+      <c r="N24" s="9"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="S24" s="42">
+        <v>3</v>
+      </c>
+      <c r="T24" s="42">
+        <v>5</v>
+      </c>
+      <c r="U24" s="42">
+        <v>1</v>
+      </c>
+      <c r="V24" s="42">
+        <v>3</v>
+      </c>
+      <c r="W24" s="41">
+        <v>1</v>
+      </c>
+      <c r="X24" s="42">
+        <v>3</v>
+      </c>
+      <c r="Y24" s="42">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="46">
+        <v>7</v>
+      </c>
+      <c r="AA24" s="46">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+    </row>
+    <row r="25" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B25" s="61"/>
+      <c r="D25" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="42">
+        <v>7</v>
+      </c>
+      <c r="F25" s="42">
+        <v>3</v>
+      </c>
+      <c r="G25" s="42">
+        <v>5</v>
+      </c>
+      <c r="H25" s="42">
+        <f t="shared" ref="H25:I25" si="8">1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I25" s="43">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J25" s="41">
+        <v>1</v>
+      </c>
+      <c r="K25" s="43">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="44">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M25" s="39">
+      <c r="M25" s="45">
         <v>5</v>
       </c>
       <c r="N25" s="9"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
-    </row>
-    <row r="26" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B26" s="70"/>
-      <c r="D26" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="39">
-        <v>9</v>
-      </c>
-      <c r="F26" s="39">
-        <v>7</v>
-      </c>
-      <c r="G26" s="39">
-        <v>8</v>
-      </c>
-      <c r="H26" s="39">
-        <v>3</v>
-      </c>
-      <c r="I26" s="39">
-        <v>3</v>
-      </c>
-      <c r="J26" s="39">
+      <c r="R25" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="S25" s="42">
+        <v>1</v>
+      </c>
+      <c r="T25" s="42">
         <v>5</v>
       </c>
-      <c r="K26" s="35">
-        <v>1</v>
-      </c>
-      <c r="L26" s="39">
-        <v>3</v>
-      </c>
-      <c r="M26" s="39">
-        <v>7</v>
-      </c>
-      <c r="N26" s="9"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="51"/>
-      <c r="AC26" s="51"/>
-    </row>
-    <row r="27" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B27" s="70"/>
-      <c r="D27" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="39">
-        <v>9</v>
-      </c>
-      <c r="F27" s="39">
-        <v>5</v>
-      </c>
-      <c r="G27" s="39">
-        <v>7</v>
-      </c>
-      <c r="H27" s="39">
-        <v>3</v>
-      </c>
-      <c r="I27" s="39">
-        <v>3</v>
-      </c>
-      <c r="J27" s="39">
-        <v>3</v>
-      </c>
-      <c r="K27" s="36">
+      <c r="U25" s="42">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L27" s="35">
-        <v>1</v>
-      </c>
-      <c r="M27" s="39">
-        <v>7</v>
-      </c>
-      <c r="N27" s="9"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="51"/>
-      <c r="AC27" s="51"/>
-    </row>
-    <row r="28" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B28" s="65"/>
-      <c r="D28" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="39">
+      <c r="V25" s="42">
         <v>3</v>
       </c>
-      <c r="F28" s="39">
+      <c r="W25" s="43">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G28" s="39">
+      <c r="X25" s="41">
         <v>1</v>
       </c>
-      <c r="H28" s="38">
-        <f t="shared" ref="H28:I28" si="6">1/7</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="I28" s="38">
-        <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="J28" s="38">
+      <c r="Y25" s="42">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="46">
+        <v>7</v>
+      </c>
+      <c r="AA25" s="46">
+        <v>5</v>
+      </c>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+    </row>
+    <row r="26" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B26" s="61"/>
+      <c r="D26" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="45">
+        <v>9</v>
+      </c>
+      <c r="F26" s="45">
+        <v>7</v>
+      </c>
+      <c r="G26" s="45">
+        <v>8</v>
+      </c>
+      <c r="H26" s="45">
+        <v>3</v>
+      </c>
+      <c r="I26" s="45">
+        <v>3</v>
+      </c>
+      <c r="J26" s="45">
+        <v>5</v>
+      </c>
+      <c r="K26" s="41">
+        <v>1</v>
+      </c>
+      <c r="L26" s="45">
+        <v>3</v>
+      </c>
+      <c r="M26" s="45">
+        <v>7</v>
+      </c>
+      <c r="N26" s="9"/>
+      <c r="R26" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="S26" s="45">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T26" s="46">
+        <v>3</v>
+      </c>
+      <c r="U26" s="45">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="K28" s="36">
-        <f t="shared" ref="K28:L28" si="7">1/7</f>
+      <c r="V26" s="45">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W26" s="45">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="X26" s="45">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y26" s="41">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="46">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="46">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+    </row>
+    <row r="27" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B27" s="61"/>
+      <c r="D27" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="45">
+        <v>9</v>
+      </c>
+      <c r="F27" s="45">
+        <v>5</v>
+      </c>
+      <c r="G27" s="45">
+        <v>7</v>
+      </c>
+      <c r="H27" s="45">
+        <v>3</v>
+      </c>
+      <c r="I27" s="45">
+        <v>3</v>
+      </c>
+      <c r="J27" s="45">
+        <v>3</v>
+      </c>
+      <c r="K27" s="42">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L27" s="41">
+        <v>1</v>
+      </c>
+      <c r="M27" s="45">
+        <v>7</v>
+      </c>
+      <c r="N27" s="9"/>
+      <c r="R27" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="S27" s="45">
+        <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="L28" s="38">
-        <f t="shared" si="7"/>
+      <c r="T27" s="45">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U27" s="45">
+        <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="M28" s="35">
+      <c r="V27" s="45">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="W27" s="45">
+        <f t="shared" ref="W27:X27" si="9">1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X27" s="45">
+        <f t="shared" si="9"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Y27" s="42">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="Z27" s="41">
         <v>1</v>
       </c>
+      <c r="AA27" s="45">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+    </row>
+    <row r="28" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B28" s="61"/>
+      <c r="D28" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="45">
+        <v>3</v>
+      </c>
+      <c r="F28" s="45">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G28" s="45">
+        <v>1</v>
+      </c>
+      <c r="H28" s="44">
+        <f t="shared" ref="H28:I28" si="10">1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I28" s="44">
+        <f t="shared" si="10"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J28" s="44">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="K28" s="42">
+        <f t="shared" ref="K28:L28" si="11">1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="L28" s="44">
+        <f t="shared" si="11"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="M28" s="41">
+        <v>1</v>
+      </c>
       <c r="N28" s="9"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="51"/>
+      <c r="R28" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="S28" s="45">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="T28" s="46">
+        <v>1</v>
+      </c>
+      <c r="U28" s="45">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="V28" s="44">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W28" s="44">
+        <f t="shared" ref="W28:X28" si="12">1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="X28" s="44">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y28" s="42">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z28" s="46">
+        <v>3</v>
+      </c>
+      <c r="AA28" s="41">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
     </row>
     <row r="29" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B29" s="64" t="s">
-        <v>49</v>
-      </c>
+      <c r="B29" s="61"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="41"/>
+      <c r="K29" s="48"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
     </row>
     <row r="30" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B30" s="70"/>
+      <c r="B30" s="61"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="41"/>
+      <c r="K30" s="48"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="51"/>
     </row>
     <row r="31" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B31" s="70"/>
-      <c r="D31" s="42" t="s">
-        <v>93</v>
+      <c r="B31" s="61"/>
+      <c r="D31" s="49" t="s">
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="41"/>
+      <c r="K31" s="48"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="51"/>
-      <c r="AC31" s="51"/>
+      <c r="R31" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
     </row>
     <row r="32" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B32" s="65"/>
-      <c r="D32" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K32" s="25" t="s">
+      <c r="B32" s="61"/>
+      <c r="D32" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="L32" s="25" t="s">
+      <c r="F32" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="M32" s="25" t="s">
+      <c r="G32" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="N32" s="26" t="s">
+      <c r="H32" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="O32" s="26" t="s">
+      <c r="J32" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="51"/>
-      <c r="AC32" s="51"/>
+      <c r="K32" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N32" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="O32" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="R32" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="S32" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="T32" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="U32" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="V32" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="W32" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="X32" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y32" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z32" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA32" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB32" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC32" s="28" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="33" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B33" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="43">
-        <f t="shared" ref="E33:M33" si="8">E20/SUM(E$20:E$28)</f>
+      <c r="B33" s="61"/>
+      <c r="D33" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="50">
+        <f t="shared" ref="E33:M33" si="13">E20/SUM(E$20:E$28)</f>
         <v>1.8867924528301886E-2</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="50">
         <f>F20/SUM(F$20:F$28)</f>
         <v>7.444168734491316E-3</v>
       </c>
-      <c r="G33" s="43">
-        <f t="shared" si="8"/>
+      <c r="G33" s="50">
+        <f t="shared" si="13"/>
         <v>8.4745762711864389E-3</v>
       </c>
-      <c r="H33" s="43">
-        <f t="shared" si="8"/>
+      <c r="H33" s="50">
+        <f t="shared" si="13"/>
         <v>1.3975775322773857E-2</v>
       </c>
-      <c r="I33" s="43">
-        <f t="shared" si="8"/>
+      <c r="I33" s="50">
+        <f t="shared" si="13"/>
         <v>1.3975775322773857E-2</v>
       </c>
-      <c r="J33" s="43">
-        <f t="shared" si="8"/>
+      <c r="J33" s="50">
+        <f t="shared" si="13"/>
         <v>8.9982003599280141E-3</v>
       </c>
-      <c r="K33" s="43">
-        <f t="shared" si="8"/>
+      <c r="K33" s="50">
+        <f t="shared" si="13"/>
         <v>4.0822277299897944E-2</v>
       </c>
-      <c r="L33" s="43">
-        <f t="shared" si="8"/>
+      <c r="L33" s="50">
+        <f t="shared" si="13"/>
         <v>1.9852524106636411E-2</v>
       </c>
-      <c r="M33" s="43">
-        <f t="shared" si="8"/>
+      <c r="M33" s="50">
+        <f t="shared" si="13"/>
         <v>8.6956521739130418E-3</v>
       </c>
-      <c r="N33" s="44">
-        <f t="shared" ref="N33:N41" si="9">SUM(E33:M33)</f>
+      <c r="N33" s="51">
+        <f t="shared" ref="N33:N41" si="14">SUM(E33:M33)</f>
         <v>0.14110687411990278</v>
       </c>
-      <c r="O33" s="41">
-        <f t="shared" ref="O33:O41" si="10">$N33/9</f>
+      <c r="O33" s="48">
+        <f t="shared" ref="O33:O41" si="15">$N33/9</f>
         <v>1.5678541568878088E-2</v>
       </c>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="51"/>
-      <c r="AB33" s="51"/>
-      <c r="AC33" s="51"/>
+      <c r="R33" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="S33" s="50">
+        <f t="shared" ref="S33:AA33" si="16">S20/SUM(S$20:S$28)</f>
+        <v>0.10858324715615306</v>
+      </c>
+      <c r="T33" s="50">
+        <f t="shared" si="16"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="U33" s="50">
+        <f t="shared" si="16"/>
+        <v>8.9058524173027981E-2</v>
+      </c>
+      <c r="V33" s="50">
+        <f t="shared" si="16"/>
+        <v>0.21126760563380281</v>
+      </c>
+      <c r="W33" s="50">
+        <f t="shared" si="16"/>
+        <v>8.9058524173027981E-2</v>
+      </c>
+      <c r="X33" s="50">
+        <f t="shared" si="16"/>
+        <v>0.10858324715615306</v>
+      </c>
+      <c r="Y33" s="50">
+        <f t="shared" si="16"/>
+        <v>0.14376996805111822</v>
+      </c>
+      <c r="Z33" s="50">
+        <f t="shared" si="16"/>
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="AA33" s="50">
+        <f t="shared" si="16"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="AB33" s="51">
+        <f t="shared" ref="AB33:AB41" si="17">SUM(S33:AA33)</f>
+        <v>1.258817848369427</v>
+      </c>
+      <c r="AC33" s="48">
+        <f t="shared" ref="AC33:AC41" si="18">AB33/9</f>
+        <v>0.13986864981882521</v>
+      </c>
     </row>
     <row r="34" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B34" s="65"/>
-      <c r="D34" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="43">
-        <f t="shared" ref="E34:M34" si="11">E21/SUM(E$20:E$28)</f>
+      <c r="B34" s="61"/>
+      <c r="D34" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="50">
+        <f t="shared" ref="E34:M34" si="19">E21/SUM(E$20:E$28)</f>
         <v>9.4339622641509441E-2</v>
       </c>
-      <c r="F34" s="43">
-        <f t="shared" si="11"/>
+      <c r="F34" s="50">
+        <f t="shared" si="19"/>
         <v>3.722084367245658E-2</v>
       </c>
-      <c r="G34" s="43">
-        <f t="shared" si="11"/>
+      <c r="G34" s="50">
+        <f t="shared" si="19"/>
         <v>7.6271186440677957E-2</v>
       </c>
-      <c r="H34" s="43">
-        <f t="shared" si="11"/>
+      <c r="H34" s="50">
+        <f t="shared" si="19"/>
         <v>2.2361240516438174E-2</v>
       </c>
-      <c r="I34" s="43">
-        <f t="shared" si="11"/>
+      <c r="I34" s="50">
+        <f t="shared" si="19"/>
         <v>2.2361240516438174E-2</v>
       </c>
-      <c r="J34" s="43">
-        <f t="shared" si="11"/>
+      <c r="J34" s="50">
+        <f t="shared" si="19"/>
         <v>2.0995800839832032E-2</v>
       </c>
-      <c r="K34" s="43">
-        <f t="shared" si="11"/>
+      <c r="K34" s="50">
+        <f t="shared" si="19"/>
         <v>5.2485785099868787E-2</v>
       </c>
-      <c r="L34" s="43">
-        <f t="shared" si="11"/>
+      <c r="L34" s="50">
+        <f t="shared" si="19"/>
         <v>3.5734543391945546E-2</v>
       </c>
-      <c r="M34" s="43">
-        <f t="shared" si="11"/>
+      <c r="M34" s="50">
+        <f t="shared" si="19"/>
         <v>7.8260869565217384E-2</v>
       </c>
-      <c r="N34" s="44">
-        <f t="shared" si="9"/>
+      <c r="N34" s="51">
+        <f t="shared" si="14"/>
         <v>0.4400311326843841</v>
       </c>
-      <c r="O34" s="41">
-        <f t="shared" si="10"/>
+      <c r="O34" s="48">
+        <f t="shared" si="15"/>
         <v>4.8892348076042674E-2</v>
       </c>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="51"/>
+      <c r="R34" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="S34" s="50">
+        <f t="shared" ref="S34:AA34" si="20">S21/SUM(S$20:S$28)</f>
+        <v>2.1716649431230615E-2</v>
+      </c>
+      <c r="T34" s="50">
+        <f t="shared" si="20"/>
+        <v>3.5294117647058823E-2</v>
+      </c>
+      <c r="U34" s="50">
+        <f t="shared" si="20"/>
+        <v>5.34351145038168E-2</v>
+      </c>
+      <c r="V34" s="50">
+        <f t="shared" si="20"/>
+        <v>2.3474178403755864E-2</v>
+      </c>
+      <c r="W34" s="50">
+        <f t="shared" si="20"/>
+        <v>5.34351145038168E-2</v>
+      </c>
+      <c r="X34" s="50">
+        <f t="shared" si="20"/>
+        <v>2.1716649431230615E-2</v>
+      </c>
+      <c r="Y34" s="50">
+        <f t="shared" si="20"/>
+        <v>1.5974440894568689E-2</v>
+      </c>
+      <c r="Z34" s="50">
+        <f t="shared" si="20"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AA34" s="50">
+        <f t="shared" si="20"/>
+        <v>3.5294117647058823E-2</v>
+      </c>
+      <c r="AB34" s="51">
+        <f t="shared" si="17"/>
+        <v>0.32700704912920364</v>
+      </c>
+      <c r="AC34" s="48">
+        <f t="shared" si="18"/>
+        <v>3.6334116569911513E-2</v>
+      </c>
     </row>
     <row r="35" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D35" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="43">
-        <f t="shared" ref="E35:M35" si="12">E22/SUM(E$20:E$28)</f>
+      <c r="D35" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="50">
+        <f t="shared" ref="E35:M35" si="21">E22/SUM(E$20:E$28)</f>
         <v>5.6603773584905662E-2</v>
       </c>
-      <c r="F35" s="43">
-        <f t="shared" si="12"/>
+      <c r="F35" s="50">
+        <f t="shared" si="21"/>
         <v>1.2406947890818859E-2</v>
       </c>
-      <c r="G35" s="43">
-        <f t="shared" si="12"/>
+      <c r="G35" s="50">
+        <f t="shared" si="21"/>
         <v>2.542372881355932E-2</v>
       </c>
-      <c r="H35" s="43">
-        <f t="shared" si="12"/>
+      <c r="H35" s="50">
+        <f t="shared" si="21"/>
         <v>1.5972314654598693E-2</v>
       </c>
-      <c r="I35" s="43">
-        <f t="shared" si="12"/>
+      <c r="I35" s="50">
+        <f t="shared" si="21"/>
         <v>1.5972314654598693E-2</v>
       </c>
-      <c r="J35" s="43">
-        <f t="shared" si="12"/>
+      <c r="J35" s="50">
+        <f t="shared" si="21"/>
         <v>1.259748050389922E-2</v>
       </c>
-      <c r="K35" s="43">
-        <f t="shared" si="12"/>
+      <c r="K35" s="50">
+        <f t="shared" si="21"/>
         <v>4.5925061962385196E-2</v>
       </c>
-      <c r="L35" s="43">
-        <f t="shared" si="12"/>
+      <c r="L35" s="50">
+        <f t="shared" si="21"/>
         <v>2.5524673851389672E-2</v>
       </c>
-      <c r="M35" s="43">
-        <f t="shared" si="12"/>
+      <c r="M35" s="50">
+        <f t="shared" si="21"/>
         <v>2.6086956521739129E-2</v>
       </c>
-      <c r="N35" s="44">
-        <f t="shared" si="9"/>
+      <c r="N35" s="51">
+        <f t="shared" si="14"/>
         <v>0.23651325243789445</v>
       </c>
-      <c r="O35" s="41">
-        <f t="shared" si="10"/>
+      <c r="O35" s="48">
+        <f t="shared" si="15"/>
         <v>2.6279250270877162E-2</v>
       </c>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="51"/>
+      <c r="R35" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="S35" s="50">
+        <f t="shared" ref="S35:AA35" si="22">S22/SUM(S$20:S$28)</f>
+        <v>0.3257497414684592</v>
+      </c>
+      <c r="T35" s="50">
+        <f t="shared" si="22"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="U35" s="50">
+        <f t="shared" si="22"/>
+        <v>0.26717557251908397</v>
+      </c>
+      <c r="V35" s="50">
+        <f t="shared" si="22"/>
+        <v>0.21126760563380281</v>
+      </c>
+      <c r="W35" s="50">
+        <f t="shared" si="22"/>
+        <v>0.26717557251908397</v>
+      </c>
+      <c r="X35" s="50">
+        <f t="shared" si="22"/>
+        <v>0.3257497414684592</v>
+      </c>
+      <c r="Y35" s="50">
+        <f t="shared" si="22"/>
+        <v>0.23961661341853036</v>
+      </c>
+      <c r="Z35" s="50">
+        <f t="shared" si="22"/>
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="AA35" s="50">
+        <f t="shared" si="22"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="AB35" s="51">
+        <f t="shared" si="17"/>
+        <v>2.1452315790535632</v>
+      </c>
+      <c r="AC35" s="48">
+        <f t="shared" si="18"/>
+        <v>0.2383590643392848</v>
+      </c>
     </row>
     <row r="36" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D36" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="43">
-        <f t="shared" ref="E36:M36" si="13">E23/SUM(E$20:E$28)</f>
+      <c r="D36" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="50">
+        <f t="shared" ref="E36:M36" si="23">E23/SUM(E$20:E$28)</f>
         <v>0.15094339622641509</v>
       </c>
-      <c r="F36" s="43">
-        <f t="shared" si="13"/>
+      <c r="F36" s="50">
+        <f t="shared" si="23"/>
         <v>0.18610421836228289</v>
       </c>
-      <c r="G36" s="43">
-        <f t="shared" si="13"/>
+      <c r="G36" s="50">
+        <f t="shared" si="23"/>
         <v>0.17796610169491525</v>
       </c>
-      <c r="H36" s="43">
-        <f t="shared" si="13"/>
+      <c r="H36" s="50">
+        <f t="shared" si="23"/>
         <v>0.11180620258219086</v>
       </c>
-      <c r="I36" s="43">
-        <f t="shared" si="13"/>
+      <c r="I36" s="50">
+        <f t="shared" si="23"/>
         <v>0.11180620258219086</v>
       </c>
-      <c r="J36" s="43">
-        <f t="shared" si="13"/>
+      <c r="J36" s="50">
+        <f t="shared" si="23"/>
         <v>0.1889622075584883</v>
       </c>
-      <c r="K36" s="43">
-        <f t="shared" si="13"/>
+      <c r="K36" s="50">
+        <f t="shared" si="23"/>
         <v>0.12246683189969385</v>
       </c>
-      <c r="L36" s="43">
-        <f t="shared" si="13"/>
+      <c r="L36" s="50">
+        <f t="shared" si="23"/>
         <v>5.9557572319909234E-2</v>
       </c>
-      <c r="M36" s="43">
-        <f t="shared" si="13"/>
+      <c r="M36" s="50">
+        <f t="shared" si="23"/>
         <v>0.18260869565217391</v>
       </c>
-      <c r="N36" s="44">
-        <f t="shared" si="9"/>
+      <c r="N36" s="51">
+        <f t="shared" si="14"/>
         <v>1.2922214288782603</v>
       </c>
-      <c r="O36" s="41">
-        <f t="shared" si="10"/>
+      <c r="O36" s="48">
+        <f t="shared" si="15"/>
         <v>0.14358015876425115</v>
       </c>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="51"/>
-      <c r="AB36" s="51"/>
-      <c r="AC36" s="51"/>
+      <c r="R36" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="S36" s="50">
+        <f t="shared" ref="S36:AA36" si="24">S23/SUM(S$20:S$28)</f>
+        <v>3.6194415718717683E-2</v>
+      </c>
+      <c r="T36" s="50">
+        <f t="shared" si="24"/>
+        <v>0.10588235294117647</v>
+      </c>
+      <c r="U36" s="50">
+        <f t="shared" si="24"/>
+        <v>8.9058524173027981E-2</v>
+      </c>
+      <c r="V36" s="50">
+        <f t="shared" si="24"/>
+        <v>7.0422535211267595E-2</v>
+      </c>
+      <c r="W36" s="50">
+        <f t="shared" si="24"/>
+        <v>8.9058524173027981E-2</v>
+      </c>
+      <c r="X36" s="50">
+        <f t="shared" si="24"/>
+        <v>3.6194415718717683E-2</v>
+      </c>
+      <c r="Y36" s="50">
+        <f t="shared" si="24"/>
+        <v>0.14376996805111822</v>
+      </c>
+      <c r="Z36" s="50">
+        <f t="shared" si="24"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AA36" s="50">
+        <f t="shared" si="24"/>
+        <v>0.10588235294117647</v>
+      </c>
+      <c r="AB36" s="51">
+        <f t="shared" si="17"/>
+        <v>0.7875742000393412</v>
+      </c>
+      <c r="AC36" s="48">
+        <f t="shared" si="18"/>
+        <v>8.7508244448815692E-2</v>
+      </c>
     </row>
     <row r="37" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D37" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="43">
-        <f t="shared" ref="E37:M37" si="14">E24/SUM(E$20:E$28)</f>
+      <c r="D37" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="50">
+        <f t="shared" ref="E37:M37" si="25">E24/SUM(E$20:E$28)</f>
         <v>0.15094339622641509</v>
       </c>
-      <c r="F37" s="43">
+      <c r="F37" s="50">
+        <f t="shared" si="25"/>
+        <v>0.18610421836228289</v>
+      </c>
+      <c r="G37" s="50">
+        <f t="shared" si="25"/>
+        <v>0.17796610169491525</v>
+      </c>
+      <c r="H37" s="50">
+        <f t="shared" si="25"/>
+        <v>0.11180620258219086</v>
+      </c>
+      <c r="I37" s="50">
+        <f t="shared" si="25"/>
+        <v>0.11180620258219086</v>
+      </c>
+      <c r="J37" s="50">
+        <f t="shared" si="25"/>
+        <v>0.1889622075584883</v>
+      </c>
+      <c r="K37" s="50">
+        <f t="shared" si="25"/>
+        <v>0.12246683189969385</v>
+      </c>
+      <c r="L37" s="50">
+        <f t="shared" si="25"/>
+        <v>5.9557572319909234E-2</v>
+      </c>
+      <c r="M37" s="50">
+        <f t="shared" si="25"/>
+        <v>0.18260869565217391</v>
+      </c>
+      <c r="N37" s="51">
         <f t="shared" si="14"/>
+        <v>1.2922214288782603</v>
+      </c>
+      <c r="O37" s="48">
+        <f t="shared" si="15"/>
+        <v>0.14358015876425115</v>
+      </c>
+      <c r="R37" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="S37" s="50">
+        <f t="shared" ref="S37:AA37" si="26">S24/SUM(S$20:S$28)</f>
+        <v>0.3257497414684592</v>
+      </c>
+      <c r="T37" s="50">
+        <f t="shared" si="26"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="U37" s="50">
+        <f t="shared" si="26"/>
+        <v>0.26717557251908397</v>
+      </c>
+      <c r="V37" s="50">
+        <f t="shared" si="26"/>
+        <v>0.21126760563380281</v>
+      </c>
+      <c r="W37" s="50">
+        <f t="shared" si="26"/>
+        <v>0.26717557251908397</v>
+      </c>
+      <c r="X37" s="50">
+        <f t="shared" si="26"/>
+        <v>0.3257497414684592</v>
+      </c>
+      <c r="Y37" s="50">
+        <f t="shared" si="26"/>
+        <v>0.23961661341853036</v>
+      </c>
+      <c r="Z37" s="50">
+        <f t="shared" si="26"/>
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="AA37" s="50">
+        <f t="shared" si="26"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="AB37" s="51">
+        <f t="shared" si="17"/>
+        <v>2.1452315790535632</v>
+      </c>
+      <c r="AC37" s="48">
+        <f t="shared" si="18"/>
+        <v>0.2383590643392848</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D38" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="50">
+        <f t="shared" ref="E38:M38" si="27">E25/SUM(E$20:E$28)</f>
+        <v>0.13207547169811321</v>
+      </c>
+      <c r="F38" s="50">
+        <f t="shared" si="27"/>
+        <v>0.11166253101736974</v>
+      </c>
+      <c r="G38" s="50">
+        <f t="shared" si="27"/>
+        <v>0.1271186440677966</v>
+      </c>
+      <c r="H38" s="50">
+        <f t="shared" si="27"/>
+        <v>3.7268734194063617E-2</v>
+      </c>
+      <c r="I38" s="50">
+        <f t="shared" si="27"/>
+        <v>3.7268734194063617E-2</v>
+      </c>
+      <c r="J38" s="50">
+        <f t="shared" si="27"/>
+        <v>6.2987402519496097E-2</v>
+      </c>
+      <c r="K38" s="50">
+        <f t="shared" si="27"/>
+        <v>7.3480099139816318E-2</v>
+      </c>
+      <c r="L38" s="50">
+        <f t="shared" si="27"/>
+        <v>5.9557572319909234E-2</v>
+      </c>
+      <c r="M38" s="50">
+        <f t="shared" si="27"/>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="N38" s="51">
+        <f t="shared" si="14"/>
+        <v>0.77185397175932413</v>
+      </c>
+      <c r="O38" s="48">
+        <f t="shared" si="15"/>
+        <v>8.5761552417702683E-2</v>
+      </c>
+      <c r="R38" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="S38" s="50">
+        <f t="shared" ref="S38:AA38" si="28">S25/SUM(S$20:S$28)</f>
+        <v>0.10858324715615306</v>
+      </c>
+      <c r="T38" s="50">
+        <f t="shared" si="28"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="U38" s="50">
+        <f t="shared" si="28"/>
+        <v>8.9058524173027981E-2</v>
+      </c>
+      <c r="V38" s="50">
+        <f t="shared" si="28"/>
+        <v>0.21126760563380281</v>
+      </c>
+      <c r="W38" s="50">
+        <f t="shared" si="28"/>
+        <v>8.9058524173027981E-2</v>
+      </c>
+      <c r="X38" s="50">
+        <f t="shared" si="28"/>
+        <v>0.10858324715615306</v>
+      </c>
+      <c r="Y38" s="50">
+        <f t="shared" si="28"/>
+        <v>0.14376996805111822</v>
+      </c>
+      <c r="Z38" s="50">
+        <f t="shared" si="28"/>
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="AA38" s="50">
+        <f t="shared" si="28"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="AB38" s="51">
+        <f t="shared" si="17"/>
+        <v>1.258817848369427</v>
+      </c>
+      <c r="AC38" s="48">
+        <f t="shared" si="18"/>
+        <v>0.13986864981882521</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D39" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="50">
+        <f t="shared" ref="E39:M39" si="29">E26/SUM(E$20:E$28)</f>
+        <v>0.16981132075471697</v>
+      </c>
+      <c r="F39" s="50">
+        <f t="shared" si="29"/>
+        <v>0.26054590570719605</v>
+      </c>
+      <c r="G39" s="50">
+        <f t="shared" si="29"/>
+        <v>0.20338983050847456</v>
+      </c>
+      <c r="H39" s="50">
+        <f t="shared" si="29"/>
+        <v>0.33541860774657256</v>
+      </c>
+      <c r="I39" s="50">
+        <f t="shared" si="29"/>
+        <v>0.33541860774657256</v>
+      </c>
+      <c r="J39" s="50">
+        <f t="shared" si="29"/>
+        <v>0.31493701259748047</v>
+      </c>
+      <c r="K39" s="50">
+        <f t="shared" si="29"/>
+        <v>0.36740049569908156</v>
+      </c>
+      <c r="L39" s="50">
+        <f t="shared" si="29"/>
+        <v>0.53601815087918314</v>
+      </c>
+      <c r="M39" s="50">
+        <f t="shared" si="29"/>
+        <v>0.18260869565217391</v>
+      </c>
+      <c r="N39" s="51">
+        <f t="shared" si="14"/>
+        <v>2.7055486272914515</v>
+      </c>
+      <c r="O39" s="48">
+        <f t="shared" si="15"/>
+        <v>0.30061651414349461</v>
+      </c>
+      <c r="R39" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="S39" s="50">
+        <f t="shared" ref="S39:AA39" si="30">S26/SUM(S$20:S$28)</f>
+        <v>3.6194415718717683E-2</v>
+      </c>
+      <c r="T39" s="50">
+        <f t="shared" si="30"/>
+        <v>0.10588235294117647</v>
+      </c>
+      <c r="U39" s="50">
+        <f t="shared" si="30"/>
+        <v>5.34351145038168E-2</v>
+      </c>
+      <c r="V39" s="50">
+        <f t="shared" si="30"/>
+        <v>2.3474178403755864E-2</v>
+      </c>
+      <c r="W39" s="50">
+        <f t="shared" si="30"/>
+        <v>5.34351145038168E-2</v>
+      </c>
+      <c r="X39" s="50">
+        <f t="shared" si="30"/>
+        <v>3.6194415718717683E-2</v>
+      </c>
+      <c r="Y39" s="50">
+        <f t="shared" si="30"/>
+        <v>4.7923322683706068E-2</v>
+      </c>
+      <c r="Z39" s="50">
+        <f t="shared" si="30"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AA39" s="50">
+        <f t="shared" si="30"/>
+        <v>0.10588235294117647</v>
+      </c>
+      <c r="AB39" s="51">
+        <f t="shared" si="17"/>
+        <v>0.57353237852599492</v>
+      </c>
+      <c r="AC39" s="48">
+        <f t="shared" si="18"/>
+        <v>6.3725819836221664E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D40" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="50">
+        <f t="shared" ref="E40:M40" si="31">E27/SUM(E$20:E$28)</f>
+        <v>0.16981132075471697</v>
+      </c>
+      <c r="F40" s="50">
+        <f t="shared" si="31"/>
         <v>0.18610421836228289</v>
       </c>
-      <c r="G37" s="43">
+      <c r="G40" s="50">
+        <f t="shared" si="31"/>
+        <v>0.17796610169491525</v>
+      </c>
+      <c r="H40" s="50">
+        <f t="shared" si="31"/>
+        <v>0.33541860774657256</v>
+      </c>
+      <c r="I40" s="50">
+        <f t="shared" si="31"/>
+        <v>0.33541860774657256</v>
+      </c>
+      <c r="J40" s="50">
+        <f t="shared" si="31"/>
+        <v>0.1889622075584883</v>
+      </c>
+      <c r="K40" s="50">
+        <f t="shared" si="31"/>
+        <v>0.12246683189969385</v>
+      </c>
+      <c r="L40" s="50">
+        <f t="shared" si="31"/>
+        <v>0.17867271695972772</v>
+      </c>
+      <c r="M40" s="50">
+        <f t="shared" si="31"/>
+        <v>0.18260869565217391</v>
+      </c>
+      <c r="N40" s="51">
         <f t="shared" si="14"/>
-        <v>0.17796610169491525</v>
-      </c>
-      <c r="H37" s="43">
+        <v>1.8774293083751441</v>
+      </c>
+      <c r="O40" s="48">
+        <f t="shared" si="15"/>
+        <v>0.20860325648612713</v>
+      </c>
+      <c r="R40" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="S40" s="50">
+        <f t="shared" ref="S40:AA40" si="32">S27/SUM(S$20:S$28)</f>
+        <v>1.5511892450879007E-2</v>
+      </c>
+      <c r="T40" s="50">
+        <f t="shared" si="32"/>
+        <v>1.1764705882352941E-2</v>
+      </c>
+      <c r="U40" s="50">
+        <f t="shared" si="32"/>
+        <v>3.8167938931297704E-2</v>
+      </c>
+      <c r="V40" s="50">
+        <f t="shared" si="32"/>
+        <v>1.4084507042253521E-2</v>
+      </c>
+      <c r="W40" s="50">
+        <f t="shared" si="32"/>
+        <v>3.8167938931297704E-2</v>
+      </c>
+      <c r="X40" s="50">
+        <f t="shared" si="32"/>
+        <v>1.5511892450879007E-2</v>
+      </c>
+      <c r="Y40" s="50">
+        <f t="shared" si="32"/>
+        <v>9.5846645367412137E-3</v>
+      </c>
+      <c r="Z40" s="50">
+        <f t="shared" si="32"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="AA40" s="50">
+        <f t="shared" si="32"/>
+        <v>1.1764705882352941E-2</v>
+      </c>
+      <c r="AB40" s="51">
+        <f t="shared" si="17"/>
+        <v>0.17678046833027622</v>
+      </c>
+      <c r="AC40" s="48">
+        <f t="shared" si="18"/>
+        <v>1.9642274258919581E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D41" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="50">
+        <f t="shared" ref="E41:M41" si="33">E28/SUM(E$20:E$28)</f>
+        <v>5.6603773584905662E-2</v>
+      </c>
+      <c r="F41" s="50">
+        <f t="shared" si="33"/>
+        <v>1.2406947890818859E-2</v>
+      </c>
+      <c r="G41" s="50">
+        <f t="shared" si="33"/>
+        <v>2.542372881355932E-2</v>
+      </c>
+      <c r="H41" s="50">
+        <f t="shared" si="33"/>
+        <v>1.5972314654598693E-2</v>
+      </c>
+      <c r="I41" s="50">
+        <f t="shared" si="33"/>
+        <v>1.5972314654598693E-2</v>
+      </c>
+      <c r="J41" s="50">
+        <f t="shared" si="33"/>
+        <v>1.259748050389922E-2</v>
+      </c>
+      <c r="K41" s="50">
+        <f t="shared" si="33"/>
+        <v>5.2485785099868787E-2</v>
+      </c>
+      <c r="L41" s="50">
+        <f t="shared" si="33"/>
+        <v>2.5524673851389672E-2</v>
+      </c>
+      <c r="M41" s="50">
+        <f t="shared" si="33"/>
+        <v>2.6086956521739129E-2</v>
+      </c>
+      <c r="N41" s="51">
         <f t="shared" si="14"/>
-        <v>0.11180620258219086</v>
-      </c>
-      <c r="I37" s="43">
-        <f t="shared" si="14"/>
-        <v>0.11180620258219086</v>
-      </c>
-      <c r="J37" s="43">
-        <f t="shared" si="14"/>
-        <v>0.1889622075584883</v>
-      </c>
-      <c r="K37" s="43">
-        <f t="shared" si="14"/>
-        <v>0.12246683189969385</v>
-      </c>
-      <c r="L37" s="43">
-        <f t="shared" si="14"/>
-        <v>5.9557572319909234E-2</v>
-      </c>
-      <c r="M37" s="43">
-        <f t="shared" si="14"/>
-        <v>0.18260869565217391</v>
-      </c>
-      <c r="N37" s="44">
-        <f t="shared" si="9"/>
-        <v>1.2922214288782603</v>
-      </c>
-      <c r="O37" s="41">
-        <f t="shared" si="10"/>
-        <v>0.14358015876425115</v>
-      </c>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="51"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="51"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="51"/>
-    </row>
-    <row r="38" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D38" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" s="43">
-        <f t="shared" ref="E38:M38" si="15">E25/SUM(E$20:E$28)</f>
-        <v>0.13207547169811321</v>
-      </c>
-      <c r="F38" s="43">
+        <v>0.24307397557537805</v>
+      </c>
+      <c r="O41" s="48">
         <f t="shared" si="15"/>
-        <v>0.11166253101736974</v>
-      </c>
-      <c r="G38" s="43">
-        <f t="shared" si="15"/>
-        <v>0.1271186440677966</v>
-      </c>
-      <c r="H38" s="43">
-        <f t="shared" si="15"/>
-        <v>3.7268734194063617E-2</v>
-      </c>
-      <c r="I38" s="43">
-        <f t="shared" si="15"/>
-        <v>3.7268734194063617E-2</v>
-      </c>
-      <c r="J38" s="43">
-        <f t="shared" si="15"/>
-        <v>6.2987402519496097E-2</v>
-      </c>
-      <c r="K38" s="43">
-        <f t="shared" si="15"/>
-        <v>7.3480099139816318E-2</v>
-      </c>
-      <c r="L38" s="43">
-        <f t="shared" si="15"/>
-        <v>5.9557572319909234E-2</v>
-      </c>
-      <c r="M38" s="43">
-        <f t="shared" si="15"/>
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="N38" s="44">
-        <f t="shared" si="9"/>
-        <v>0.77185397175932413</v>
-      </c>
-      <c r="O38" s="41">
-        <f t="shared" si="10"/>
-        <v>8.5761552417702683E-2</v>
-      </c>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51"/>
-      <c r="Z38" s="51"/>
-      <c r="AA38" s="51"/>
-      <c r="AB38" s="51"/>
-      <c r="AC38" s="51"/>
-    </row>
-    <row r="39" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D39" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="43">
-        <f t="shared" ref="E39:M39" si="16">E26/SUM(E$20:E$28)</f>
-        <v>0.16981132075471697</v>
-      </c>
-      <c r="F39" s="43">
-        <f t="shared" si="16"/>
-        <v>0.26054590570719605</v>
-      </c>
-      <c r="G39" s="43">
-        <f t="shared" si="16"/>
-        <v>0.20338983050847456</v>
-      </c>
-      <c r="H39" s="43">
-        <f t="shared" si="16"/>
-        <v>0.33541860774657256</v>
-      </c>
-      <c r="I39" s="43">
-        <f t="shared" si="16"/>
-        <v>0.33541860774657256</v>
-      </c>
-      <c r="J39" s="43">
-        <f t="shared" si="16"/>
-        <v>0.31493701259748047</v>
-      </c>
-      <c r="K39" s="43">
-        <f t="shared" si="16"/>
-        <v>0.36740049569908156</v>
-      </c>
-      <c r="L39" s="43">
-        <f t="shared" si="16"/>
-        <v>0.53601815087918314</v>
-      </c>
-      <c r="M39" s="43">
-        <f t="shared" si="16"/>
-        <v>0.18260869565217391</v>
-      </c>
-      <c r="N39" s="44">
-        <f t="shared" si="9"/>
-        <v>2.7055486272914515</v>
-      </c>
-      <c r="O39" s="41">
-        <f t="shared" si="10"/>
-        <v>0.30061651414349461</v>
-      </c>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="51"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="51"/>
-      <c r="X39" s="51"/>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="51"/>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="51"/>
-      <c r="AC39" s="51"/>
-    </row>
-    <row r="40" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D40" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="43">
-        <f t="shared" ref="E40:M40" si="17">E27/SUM(E$20:E$28)</f>
-        <v>0.16981132075471697</v>
-      </c>
-      <c r="F40" s="43">
+        <v>2.7008219508375338E-2</v>
+      </c>
+      <c r="R41" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="S41" s="50">
+        <f t="shared" ref="S41:AA41" si="34">S28/SUM(S$20:S$28)</f>
+        <v>2.1716649431230615E-2</v>
+      </c>
+      <c r="T41" s="50">
+        <f t="shared" si="34"/>
+        <v>3.5294117647058823E-2</v>
+      </c>
+      <c r="U41" s="50">
+        <f t="shared" si="34"/>
+        <v>5.34351145038168E-2</v>
+      </c>
+      <c r="V41" s="50">
+        <f t="shared" si="34"/>
+        <v>2.3474178403755864E-2</v>
+      </c>
+      <c r="W41" s="50">
+        <f t="shared" si="34"/>
+        <v>5.34351145038168E-2</v>
+      </c>
+      <c r="X41" s="50">
+        <f t="shared" si="34"/>
+        <v>2.1716649431230615E-2</v>
+      </c>
+      <c r="Y41" s="50">
+        <f t="shared" si="34"/>
+        <v>1.5974440894568689E-2</v>
+      </c>
+      <c r="Z41" s="50">
+        <f t="shared" si="34"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AA41" s="50">
+        <f t="shared" si="34"/>
+        <v>3.5294117647058823E-2</v>
+      </c>
+      <c r="AB41" s="51">
         <f t="shared" si="17"/>
-        <v>0.18610421836228289</v>
-      </c>
-      <c r="G40" s="43">
-        <f t="shared" si="17"/>
-        <v>0.17796610169491525</v>
-      </c>
-      <c r="H40" s="43">
-        <f t="shared" si="17"/>
-        <v>0.33541860774657256</v>
-      </c>
-      <c r="I40" s="43">
-        <f t="shared" si="17"/>
-        <v>0.33541860774657256</v>
-      </c>
-      <c r="J40" s="43">
-        <f t="shared" si="17"/>
-        <v>0.1889622075584883</v>
-      </c>
-      <c r="K40" s="43">
-        <f t="shared" si="17"/>
-        <v>0.12246683189969385</v>
-      </c>
-      <c r="L40" s="43">
-        <f t="shared" si="17"/>
-        <v>0.17867271695972772</v>
-      </c>
-      <c r="M40" s="43">
-        <f t="shared" si="17"/>
-        <v>0.18260869565217391</v>
-      </c>
-      <c r="N40" s="44">
-        <f t="shared" si="9"/>
-        <v>1.8774293083751441</v>
-      </c>
-      <c r="O40" s="41">
-        <f t="shared" si="10"/>
-        <v>0.20860325648612713</v>
-      </c>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51"/>
-      <c r="Z40" s="51"/>
-      <c r="AA40" s="51"/>
-      <c r="AB40" s="51"/>
-      <c r="AC40" s="51"/>
-    </row>
-    <row r="41" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D41" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="43">
-        <f t="shared" ref="E41:M41" si="18">E28/SUM(E$20:E$28)</f>
-        <v>5.6603773584905662E-2</v>
-      </c>
-      <c r="F41" s="43">
+        <v>0.32700704912920364</v>
+      </c>
+      <c r="AC41" s="48">
         <f t="shared" si="18"/>
-        <v>1.2406947890818859E-2</v>
-      </c>
-      <c r="G41" s="43">
-        <f t="shared" si="18"/>
-        <v>2.542372881355932E-2</v>
-      </c>
-      <c r="H41" s="43">
-        <f t="shared" si="18"/>
-        <v>1.5972314654598693E-2</v>
-      </c>
-      <c r="I41" s="43">
-        <f t="shared" si="18"/>
-        <v>1.5972314654598693E-2</v>
-      </c>
-      <c r="J41" s="43">
-        <f t="shared" si="18"/>
-        <v>1.259748050389922E-2</v>
-      </c>
-      <c r="K41" s="43">
-        <f t="shared" si="18"/>
-        <v>5.2485785099868787E-2</v>
-      </c>
-      <c r="L41" s="43">
-        <f t="shared" si="18"/>
-        <v>2.5524673851389672E-2</v>
-      </c>
-      <c r="M41" s="43">
-        <f t="shared" si="18"/>
-        <v>2.6086956521739129E-2</v>
-      </c>
-      <c r="N41" s="44">
-        <f t="shared" si="9"/>
-        <v>0.24307397557537805</v>
-      </c>
-      <c r="O41" s="41">
-        <f t="shared" si="10"/>
-        <v>2.7008219508375338E-2</v>
-      </c>
-      <c r="R41" s="51"/>
-      <c r="S41" s="51"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="51"/>
-      <c r="V41" s="51"/>
-      <c r="W41" s="51"/>
-      <c r="X41" s="51"/>
-      <c r="Y41" s="51"/>
-      <c r="Z41" s="51"/>
-      <c r="AA41" s="51"/>
-      <c r="AB41" s="51"/>
-      <c r="AC41" s="51"/>
+        <v>3.6334116569911513E-2</v>
+      </c>
     </row>
     <row r="42" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="47">
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="54">
         <f>SUM(O33:O41)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="R42" s="51"/>
-      <c r="S42" s="51"/>
-      <c r="T42" s="51"/>
-      <c r="U42" s="51"/>
-      <c r="V42" s="51"/>
-      <c r="W42" s="51"/>
-      <c r="X42" s="51"/>
-      <c r="Y42" s="51"/>
-      <c r="Z42" s="51"/>
-      <c r="AA42" s="51"/>
-      <c r="AB42" s="51"/>
-      <c r="AC42" s="51"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="54">
+        <f>SUM(AC33:AC41)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D43" s="32"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="54"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="65"/>
     </row>
     <row r="44" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D44" s="32"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="69"/>
-      <c r="M44" s="69"/>
-      <c r="N44" s="69"/>
-      <c r="O44" s="54"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="79"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="79"/>
+      <c r="O44" s="65"/>
     </row>
     <row r="45" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="57"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="54"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="67"/>
+      <c r="O45" s="65"/>
     </row>
     <row r="46" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D46" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G46" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="H46" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="I46" s="22"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="60"/>
-      <c r="O46" s="54"/>
+      <c r="D46" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" s="24"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="65"/>
     </row>
     <row r="47" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D47" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="48">
+      <c r="D47" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="56">
         <v>1.5678541568878088E-2</v>
       </c>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48">
-        <f t="shared" ref="G47:G55" si="19">E47*2</f>
+      <c r="F47" s="56">
+        <v>0.13986864981882521</v>
+      </c>
+      <c r="G47" s="56">
+        <f t="shared" ref="G47:G55" si="35">E47*2</f>
         <v>3.1357083137756175E-2</v>
       </c>
-      <c r="H47" s="48">
-        <f t="shared" ref="H47:H55" si="20">E47/2</f>
+      <c r="H47" s="56">
+        <f t="shared" ref="H47:H55" si="36">E47/2</f>
         <v>7.8392707844390438E-3</v>
       </c>
       <c r="I47" s="9"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="63"/>
-      <c r="N47" s="62"/>
-      <c r="O47" s="54"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="65"/>
     </row>
     <row r="48" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D48" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="48">
+      <c r="D48" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="56">
         <v>4.8892348076042674E-2</v>
       </c>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48">
-        <f t="shared" si="19"/>
+      <c r="F48" s="56">
+        <v>3.6334116569911513E-2</v>
+      </c>
+      <c r="G48" s="56">
+        <f t="shared" si="35"/>
         <v>9.7784696152085349E-2</v>
       </c>
-      <c r="H48" s="48">
-        <f t="shared" si="20"/>
+      <c r="H48" s="56">
+        <f t="shared" si="36"/>
         <v>2.4446174038021337E-2</v>
       </c>
       <c r="I48" s="9"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="54"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="65"/>
     </row>
     <row r="49" spans="4:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D49" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="48">
+      <c r="D49" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="56">
         <v>2.6279250270877162E-2</v>
       </c>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48">
-        <f t="shared" si="19"/>
+      <c r="F49" s="56">
+        <v>0.2383590643392848</v>
+      </c>
+      <c r="G49" s="56">
+        <f t="shared" si="35"/>
         <v>5.2558500541754323E-2</v>
       </c>
-      <c r="H49" s="48">
-        <f t="shared" si="20"/>
+      <c r="H49" s="56">
+        <f t="shared" si="36"/>
         <v>1.3139625135438581E-2</v>
       </c>
       <c r="I49" s="9"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="54"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="65"/>
     </row>
     <row r="50" spans="4:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D50" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="48">
+      <c r="D50" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="56">
         <v>0.14358015876425115</v>
       </c>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48">
-        <f t="shared" si="19"/>
+      <c r="F50" s="56">
+        <v>8.7508244448815692E-2</v>
+      </c>
+      <c r="G50" s="56">
+        <f t="shared" si="35"/>
         <v>0.2871603175285023</v>
       </c>
-      <c r="H50" s="48">
-        <f t="shared" si="20"/>
+      <c r="H50" s="56">
+        <f t="shared" si="36"/>
         <v>7.1790079382125574E-2</v>
       </c>
       <c r="I50" s="9"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="60"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="60"/>
-      <c r="O50" s="54"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="65"/>
     </row>
     <row r="51" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="48">
+      <c r="D51" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="56">
         <v>0.14358015876425115</v>
       </c>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48">
-        <f t="shared" si="19"/>
+      <c r="F51" s="56">
+        <v>0.2383590643392848</v>
+      </c>
+      <c r="G51" s="56">
+        <f t="shared" si="35"/>
         <v>0.2871603175285023</v>
       </c>
-      <c r="H51" s="48">
-        <f t="shared" si="20"/>
+      <c r="H51" s="56">
+        <f t="shared" si="36"/>
         <v>7.1790079382125574E-2</v>
       </c>
       <c r="I51" s="9"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="55"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="54"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="65"/>
     </row>
     <row r="52" spans="4:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D52" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E52" s="48">
+      <c r="D52" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="56">
         <v>8.5761552417702683E-2</v>
       </c>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48">
-        <f t="shared" si="19"/>
+      <c r="F52" s="56">
+        <v>0.13986864981882521</v>
+      </c>
+      <c r="G52" s="56">
+        <f t="shared" si="35"/>
         <v>0.17152310483540537</v>
       </c>
-      <c r="H52" s="48">
-        <f t="shared" si="20"/>
+      <c r="H52" s="56">
+        <f t="shared" si="36"/>
         <v>4.2880776208851341E-2</v>
       </c>
       <c r="I52" s="9"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="63"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="54"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="65"/>
     </row>
     <row r="53" spans="4:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D53" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53" s="49">
+      <c r="D53" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="57">
         <v>0.30061651414349461</v>
       </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="48">
-        <f t="shared" si="19"/>
+      <c r="F53" s="57">
+        <v>6.3725819836221664E-2</v>
+      </c>
+      <c r="G53" s="56">
+        <f t="shared" si="35"/>
         <v>0.60123302828698921</v>
       </c>
-      <c r="H53" s="48">
-        <f t="shared" si="20"/>
+      <c r="H53" s="56">
+        <f t="shared" si="36"/>
         <v>0.1503082570717473</v>
       </c>
       <c r="I53" s="9"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="65"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="65"/>
+      <c r="O53" s="65"/>
     </row>
     <row r="54" spans="4:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D54" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" s="49">
+      <c r="D54" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="57">
         <v>0.20860325648612713</v>
       </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="48">
-        <f t="shared" si="19"/>
+      <c r="F54" s="57">
+        <v>1.9642274258919581E-2</v>
+      </c>
+      <c r="G54" s="56">
+        <f t="shared" si="35"/>
         <v>0.41720651297225425</v>
       </c>
-      <c r="H54" s="48">
-        <f t="shared" si="20"/>
+      <c r="H54" s="56">
+        <f t="shared" si="36"/>
         <v>0.10430162824306356</v>
       </c>
       <c r="I54" s="9"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="65"/>
     </row>
     <row r="55" spans="4:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D55" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" s="49">
+      <c r="D55" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="57">
         <v>2.7008219508375338E-2</v>
       </c>
-      <c r="F55" s="49"/>
-      <c r="G55" s="48">
-        <f t="shared" si="19"/>
+      <c r="F55" s="57">
+        <v>3.6334116569911513E-2</v>
+      </c>
+      <c r="G55" s="56">
+        <f t="shared" si="35"/>
         <v>5.4016439016750677E-2</v>
       </c>
-      <c r="H55" s="48">
-        <f t="shared" si="20"/>
+      <c r="H55" s="56">
+        <f t="shared" si="36"/>
         <v>1.3504109754187669E-2</v>
       </c>
       <c r="I55" s="9"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="65"/>
+      <c r="O55" s="65"/>
     </row>
     <row r="56" spans="4:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I56" s="9"/>
@@ -3112,6 +4850,12 @@
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="4:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G58" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="H58" s="58" t="s">
+        <v>107</v>
+      </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -3119,11 +4863,17 @@
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="4:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D59" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
+      <c r="D59" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>108</v>
+      </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -3131,11 +4881,17 @@
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="4:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D60" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
+      <c r="D60" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="H60" s="58" t="s">
+        <v>107</v>
+      </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
@@ -3143,11 +4899,17 @@
       <c r="M60" s="9"/>
     </row>
     <row r="61" spans="4:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D61" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="E61" s="67"/>
-      <c r="F61" s="17"/>
+      <c r="D61" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="77"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>108</v>
+      </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
@@ -3155,6 +4917,12 @@
       <c r="M61" s="9"/>
     </row>
     <row r="62" spans="4:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G62" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="H62" s="29" t="s">
+        <v>108</v>
+      </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -3162,6 +4930,12 @@
       <c r="M62" s="9"/>
     </row>
     <row r="63" spans="4:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G63" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>108</v>
+      </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
@@ -3169,138 +4943,136 @@
       <c r="M63" s="9"/>
     </row>
     <row r="64" spans="4:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G64" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="H64" s="59" t="s">
+        <v>109</v>
+      </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
     </row>
-    <row r="65" spans="4:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
+    <row r="65" spans="7:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G65" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="H65" s="59" t="s">
+        <v>109</v>
+      </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
     </row>
-    <row r="66" spans="4:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
+    <row r="66" spans="7:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G66" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>108</v>
+      </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
     </row>
-    <row r="67" spans="4:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
+    <row r="67" spans="7:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
     </row>
-    <row r="68" spans="4:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
+    <row r="68" spans="7:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
     </row>
-    <row r="69" spans="4:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
+    <row r="69" spans="7:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
     </row>
-    <row r="70" spans="4:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
+    <row r="70" spans="7:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
     </row>
-    <row r="71" spans="4:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
+    <row r="71" spans="7:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
     </row>
-    <row r="72" spans="4:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
+    <row r="72" spans="7:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
     </row>
-    <row r="73" spans="4:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D73" s="51"/>
-      <c r="E73" s="51"/>
+    <row r="73" spans="7:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
     </row>
-    <row r="74" spans="4:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D74" s="51"/>
-      <c r="E74" s="51"/>
+    <row r="74" spans="7:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
     </row>
-    <row r="75" spans="4:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
     </row>
-    <row r="76" spans="4:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
     </row>
-    <row r="77" spans="4:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
     </row>
-    <row r="78" spans="4:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
     </row>
-    <row r="79" spans="4:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
     </row>
-    <row r="80" spans="4:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
@@ -3336,7 +5108,7 @@
       <c r="M84" s="9"/>
     </row>
     <row r="85" spans="9:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="I85" s="50"/>
+      <c r="I85" s="60"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -3344,7 +5116,7 @@
     </row>
     <row r="86" spans="9:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I86" s="9"/>
-      <c r="J86" s="50"/>
+      <c r="J86" s="60"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
@@ -9769,21 +11541,17 @@
       <c r="M1003" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B33:B34"/>
+  <mergeCells count="4">
     <mergeCell ref="D59:F59"/>
     <mergeCell ref="D60:F60"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="K44:N44"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="S1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9807,20 +11575,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -9837,7 +11605,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="83" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -9852,286 +11620,286 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="80" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="88" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="82" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="70"/>
+      <c r="D6" s="80"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="65"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="65"/>
+      <c r="D7" s="75"/>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="81" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="89" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="82" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="70"/>
+      <c r="D9" s="80"/>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="70"/>
+      <c r="D10" s="80"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="70"/>
+      <c r="D11" s="80"/>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="65"/>
+      <c r="D12" s="75"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="81" t="s">
+      <c r="A13" s="80"/>
+      <c r="B13" s="89" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="82" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="70"/>
+      <c r="D14" s="80"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="65"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="65"/>
+      <c r="D15" s="75"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="81" t="s">
+      <c r="A16" s="80"/>
+      <c r="B16" s="89" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="82" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="70"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="80"/>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="70"/>
+        <v>32</v>
+      </c>
+      <c r="D18" s="80"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="70"/>
+        <v>33</v>
+      </c>
+      <c r="D19" s="80"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="65"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="75"/>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="A21" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="B21" s="81" t="s">
         <v>36</v>
       </c>
+      <c r="C21" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="70"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="80"/>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="16" t="s">
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="80"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="80"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="75"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="80"/>
+      <c r="B25" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="80"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="80"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="80"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="80"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="80"/>
+    </row>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="80"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="75"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="80"/>
+      <c r="B30" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="70"/>
-    </row>
-    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="65"/>
-    </row>
-    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="70"/>
-      <c r="B25" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="73" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="70"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="70"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="70"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="70"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="65"/>
-    </row>
-    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="70"/>
-      <c r="B30" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="73" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="70"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="80"/>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="70"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="70"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="80"/>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="70"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="65"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="70"/>
-      <c r="B34" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="73" t="s">
-        <v>42</v>
+      <c r="A34" s="80"/>
+      <c r="B34" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="81" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="65"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
